--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_amazon.titan-embed-text-v2_0_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_amazon.titan-embed-text-v2_0_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_PubMed filtered Dataset.xlsx
@@ -478,15 +478,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Based on the context provided, long non-coding RNAs (lncRNAs) do undergo splicing, but often to a lesser extent than protein-coding mRNAs. Key points about lncRNA splicing include:
+          <t>Based on the context provided, long non-coding RNAs (lncRNAs) are generally spliced, but with some key differences compared to protein-coding genes:
 1. Most lncRNAs are spliced (98%), but they tend to have fewer exons than protein-coding genes. 42% of lncRNA transcripts have only two exons, compared to 6% of protein-coding genes.
-2. Over 25% of lncRNA genes show evidence of alternative splicing, with at least two different transcript isoforms per gene locus.
-3. The vast majority of lncRNA introns are flanked by canonical splice sites (GT/AG), similar to protein-coding genes.
-4. However, lncRNAs show lower levels of co-transcriptional splicing completion compared to mRNAs, as measured by the co-transcriptional splicing index (coSI). 
-5. The coSI values of lncRNA exons are dramatically lower than those of coding exons in the chromatin fraction, indicating lncRNAs are often spliced later or sometimes might not be spliced at all.
-6. Some well-known lncRNAs like AIRN and KCNQ1OT1 have been reported to remain predominantly unspliced.
-7. The difference in splicing completion between lncRNAs and mRNAs persists in the nuclear polyA+ fraction, suggesting lncRNAs are often spliced later in the gene expression process.
-In summary, while most lncRNAs do undergo splicing, they tend to be spliced less efficiently and often later in the gene expression process compared to mRNAs. Some lncRNAs may remain completely unspliced or have a high proportion of unspliced transcripts.</t>
+2. LncRNA exons are slightly longer than protein-coding exons, but lncRNA introns are longer than protein-coding introns. Overall, lncRNA transcripts tend to be shorter than protein-coding transcripts due to having fewer exons.
+3. Over 25% of lncRNA genes show evidence of alternative splicing, with at least two different transcript isoforms per gene locus.
+4. LncRNAs use canonical splice sites (GT/AG) similar to protein-coding genes. Some lncRNAs even contain U12 introns.
+5. However, lncRNAs show lower levels of co-transcriptional splicing compared to protein-coding genes. Their splicing is often completed later or post-transcriptionally.
+6. Some well-known lncRNAs like AIRN and KCNQ1OT1 may remain predominantly unspliced.
+7. As a class, lncRNAs have lower splicing completion indices compared to mRNAs, both in chromatin-associated RNA and nuclear polyadenylated RNA fractions.
+In summary, while most lncRNAs are spliced, their splicing patterns and dynamics differ from protein-coding genes, with a tendency toward simpler splicing, later completion of splicing, and in some cases remaining unspliced. The splicing behavior varies among different lncRNAs.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,7 +518,9 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Based on the context provided, there is no specific information about whether Denosumab (Prolia) has been approved by the FDA. The context mentions denosumab in comparison to zoledronic acid for treating bone metastases in men with castration-resistant prostate cancer, but does not discuss its FDA approval status.</t>
+          <t>Based on the context provided, yes, Denosumab (under the brand name Xgeva) has been approved by the FDA for prevention of skeletal-related events in men with metastatic castration-resistant prostate cancer (CRPC) and bone metastases. Specifically, the passage states:
+"The FDA approved in November 2010 denosumab for the prevention of SREs in men with metastatic CRPC and bone metastases."
+SREs refers to skeletal-related events. So the FDA approved denosumab in 2010 for this specific indication in prostate cancer patients.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -528,12 +530,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['10.3389_fendo.2012.00085.pdf', '10.3892_ijo.2012.1357.pdf', '10.3892_or.2012.1760.pdf', '10.3892_or.2012.1760.pdf', '10.3892_etm.2011.217.pdf']</t>
+          <t>['10.3389_fendo.2012.00085.pdf', '10.3389_fendo.2012.00085.pdf', '10.3892_ijo.2012.1357.pdf', '10.3892_or.2012.1760.pdf', '10.3892_or.2012.1760.pdf']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Denosumab versus zoledronic acid\nfor treatment of bone metas-\ntases in men with castration resis-\ntant prostate cancer: a randomised,\ndouble-blind study. Lancet 377,\n813–822.\nFong, L., Kwek, S. S., O’Brien, S.,\nKavanagh, B., McNeel, D. G., Wein-\nberg, V ., Lin, A. M., Rosenberg,\nJ., Ryan, C. J., Rini, B. I., and\nSmall, E. J. (2009). Potentiating\nendogenous antitumor immunity to\nprostate cancer through combina-\ntion immunotherapy with CTLA-4\nblockade and GM–CSF. Cancer Res.\n69, 609–615.\nGulley, J. L., and Drake, C. G. (2011).\nImmunotherapy for prostate can-\ncer: recent advances, lessons learned,\nand areas for further research. Clin.\nCancer Res. 17, 3884–3891.\nHamberg, P .,Verhagen, P . C., and de Wit,\nR. (2008). When to start cytotoxic\ntherapy in asymptomatic patients\nwith hormone refractory prostate\ncancer? Eur. J. Cancer 44,1193–1197.\nHigano,C. S.,Schellhammer,P . F.,Small,\nE. J., Burchm, P . A., Nemunaitis, J.,\nYuh, L., Provost, N., and Frohlich,\nM. W. (2009). Integrated data\nfrom 2 randomized, double-blind,\nplacebo-controlled, phase 3 trials of\nactive cellular immunotherapy with\nsipuleucel-T in advanced prostate\ncancer. Cancer 115, 3670–3679.\nHigano,C. S.,Small,E. J.,Schellhammer,\nP ., Y asothan, U., Gubernick, S., Kirk-\npatrick, P ., and Kantoff, P . W. (2010).\nSipuleucel-T. Nat. Rev. Drug Discov.\n9, 513–514.\nFrontiers in Endocrinology | Cancer Endocrinology July 2012 | Volume 3 | Article 85 | 6\nFelici et al. Current approaches in CRPC treatment\nHodi, F. S., O’Day, S. J., McDermott,\nD. F., Weber, R. W., Sosman, J. A.,\nHaanen, J. B., Gonzalez, R., Robert,\nC., Schadendorf, D., Hassel, J. C.,\nAkerley, W., van den Eertwegh, A. J.,\nLutzky, J., Lorigan, P ., Vaubel, J. M.,\nLinette, G. P ., Hogg, D., Ottensmeier,\nC. H., Lebbé, C., Peschel, C., Quirt,\nI., Clark, J. I., Wolchok, J. D., Weber,\nJ. S., Tian, J., Y ellin, M. J., Nichol,\nG. M., Hoos, A., and Urba, W. J.\n(2010). Improved survival with ipil-\nimumab in patients with metasta-\ntic melanoma. N. Engl. J. Med. 363,\n711–723.\nKantoff, P . W., Halabi, S., Conaway, M.,\nPicus, J., Kirshner, J., Hars,V ., Trump,\nD., Winer, E. P ., and Vogelzang, N.\nJ. (1999). Hydrocortisone with or\nwithout mitoxantrone in men with\nhormone-refractory prostate cancer:\nresults of the cancer and leukemia\ngroup B 9182 study. J. Clin. Oncol.\n17, 2506–2513.\nKantoff, P . W., Higano, C. S., Shore,\nN. D., Berger, E. R., Small, E. J.,\nPenson, D. F., Redfern, C. H., Fer-\nrari, A. C., Dreicer, R., Sims, R. B.,\nXu, Y., Frohlich, M. W., and Schell-\nhammer, P . F. (2010a). Sipuleucel-\nT immunotherapy for castration-\nresistant prostate cancer. N. Engl. J.\nMed. 363, 411–422.\nKantoff, P . W., Schuetz, T. J., Blumen-\nstein, B. A., Glode, L. M., Bilhartz, D.\nL., Wyand, M., Manson, K., Panicali,\nD. L., Laus, R., Schlom, J., Dahut, W.\nL., Arlen, P . M., Gulley, J. L., God-\nfrey, and W. R. (2010b). Overall sur-\nvival analysis of a phase II random-\nized controlled trial of a poxviral-\nbased PSA-targeted immunotherapy\nin metastatic castration-resistant\nprostate cancer. J. Clin. Oncol. 28,\n1099–1105.\nLi, J., Sarosi, I., Y an, X. Q., Morony, S.,\nCapparelli, C., Tan, H. L., McCabe,\nS., Elliott, R., Scully, S., Van, G.,\nKaufman, S., Juan, S. C., Sun, Y.,\nTarpley, J., Martin, L., Christensen,\nK., McCabe, J., Kostenuik, P ., Hsu,\nH., Fletcher, F., Dunstan, C. R.,\nLacey, D. L., and Boyle, W. J. (2000).\nRANK is the intrinsic hematopoietic\ncell surface receptor that controls\nosteoclastogenesis and regulation of\nbone mass and calcium metabo-\nlism. Proc. Natl. Acad. Sci. U.S.A. 97,\n1566–1571.\nLiu, M. A. (2010). Immunologic basis\nof vaccine vectors. Immunity 33,\n504–515.\nMizokami, A., Koh, E., Izumi, K., Nari-\nmoto, K., Takeda, M., Honma, S.,\nDai, J., Keller, E. T., and Namiki,\nM. (2009). Prostate cancer stromal\ncells and LNCaP cells coordinately\nactivate the androgen receptorthrough synthesis of testosterone\nand dihydrotestosterone from dehy-\ndroepiandrosterone. Endocr. Relat.\nCancer 16, 1139–1155.\nMundy, G. R., Chen, D., Zhao, M.,', 'RIA analysis shows that the binding of 212Pb-conjugated to \nErbB2 in recombinant ErbB2/Fc chimera protein-coated wells \nwas completely blocked by the presence of free form ErbB2/Fc \nand demonstrates a highly specific binding of 212Pb-trastuzumab. \nCurve fitting analysis showed that the equilibration dissociation \nconstant (Kd) of the binding was 2.86±0.25 nM (Fig. 1C). The \nKd for analysis of 212Pb-trastuzumab from three independent \nconjugations was 3.9±0.99 nM, further indicating the reproduc -\nibility of the procedure. Taken together, these data indicated \nthat we have successfully radiolabeled 212Pb eluted from the \ngenerator to intact and functional trastuzumab.\nIdentification of tumor model for therapy studies. Expression of \nHER2 and EGFR was analyzed in several lines of human pros -\ntate cancer cells used most commonly in preclinical studies. As \nshown in Fig. 2A, PC-3MM2 cells expressed the lowest level of \nHER2 among all cell lines examined. Whereas HER2 expres -\nsion was readily stained by IHC in tumors formed by LNCaP \nand LAPC-4 cells, it was almost undetectable in tumors formed \nby PC-3MM2 cells (Fig. 2B). To investigate the effectiveness of \n212Pb-trastuzumab therapy on tumors expressing relatively lower \nFigure 1. Characterization of 212Pb-trastuzumab. (A and B) After the radio -\nlabeling of 212Pb to trastuzumab, the reaction was quenched with EDTA and \nthe free 212Pb was removed using a PD-10 column. The 212Pb-trastuzumab was \nsampled before (lane 1) and after purification (lane 2) for SDS-PAGE analysis \nwith unlabeled trastuzumab (lane 3) to determine the integrity of the labeled \nprotein. Human serum albumin (HSA) was added to purified 212Pb-trastuzumab \nfor stabilization. (C) The radioimmunoassay (RIA) was performed to determine \naffinity of 212Pb-trastuzumab to HER2.\nTAN  et al:  HER2 TARGETING IMMUNORADIATION AGAINST PROSTATE CANCER 1884\nlevel of HER2, the orthotopic model of PC-3MM2 tumor was \nchosen to perform the preclinical therapy studies.\nSignificant therapeutic effects of 212Pb-trastuzumab. PC-3MM2 \ncells were inoculated into the prostates of nude mice. After \none week, when the prostatic tumors reached ~50-100 mg (45), \ntumor-bearing mice were randomized and treated with a single \ni.v. injection of 10 or 20 µCi 212Pb-trastuzumab. Tumor-bearing \ncontrol mice were left untreated or i.v. injected with 45 µg/\nmouse, a dose equivalent to trastuzumab present in 20 µCi \n212Pb-trastuzumab. Mice were sacrificed 21 days after the \ntreatment to evaluate tumor volumes and metastasis. As shown \nin Fig. 3A, a single injection of unconjugated trastuzumab did \nnot affect the growth of PC-3MM2 tumors. In contrast, growth \nof PC-3MM2 tumors was significantly suppressed in mice \ntreated with 10 and 20 µCi 212Pb-trastuzumab. Tumor weights \nin 212Pb-trastuzumab treated mice were 36 and 60% (p&lt;0.05) \nof the weight of tumors in untreated or trastuzumab-treated \nmice. Tumor growth retardation was 74% (p&lt;0.05) using 20 µCi \n212Pb-trastuzumab when the experiment was repeated. Aortic \nlymph node metastases were observed in all control mice but \nin only 40% of the mice treated with 20 µCi 212Pb-trastuzumab.\nThe efficacy of 212Pb-trastuzumab therapy on survival \nwas evaluated using tumor-bearing mice treated with 20 µCi \n212Pb-trastuzumab. Effects on survival of tumor-bearing mice \nshow that treatment prolonged survival (p=0.0046) with a \nmedian (50%) survival rate of 47 and 61 days for untreated and \nFigure 2. Determination of HER2 expression in human prostate cancer cells. \n(A) Cell lysates were prepared from several lines of human prostate cancer cells \nand analyzed by immunoblotting. (A) Lysate from MCF-7 human breast cancer \ncells was analyzed in the same gel as a positive control. (B) Paraffin-embedded \nsections from tumors formed by PC-3MM2, LNCaP, and LAPC-4 cells in nude \nmice were stained by IHC using antibody against HER2.', "MALARA et al:  Anti-ErbB2 ANTIBODY FOR PROSTATE CANCER 302\nReferences\n  1. Jemal A, Murray T, Ward E, et al: Cancer statistics, 2005. CA \nCancer J Clin 55: 10-30, 2005.\n  2. Smith PC, Hobisch A, Lin DL, Culig Z and Keller ET: \nInterleukin-6 and prostate cancer progression. Cytokine Growth \nFactor Rev 12: 33-40, 2001.\n  3. Yeh S, Lin HK, Kang HY, Thin TH, Lin MF and Chang C: From \nHER2/Neu signal cascade to androgen receptor and its coacti -\nvators: a novel pathway by induction of androgen target genes \nthrough MAP kinase in prostate cancer cells. Proc Natl Acad Sci \nUSA 96: 5458-5463, 1999.\n  4. Graus-Porta D, Beerli RR, Daly JM and Hynes NE: ErbB-2, the \npreferred heterodimerization partner of all ErbB receptors, is a \nmediator of lateral signaling. EMBO J 16: 1647-1655, 1997.\n  5. Lohrisch C and Piccart M: HER2/neu as a predictive factor in \nbreast cancer. Clin Breast Cancer 2: 129-137, 2001.\n  6. Fukushige S, Matsubara K, Yoshida M, et al: Localization of a \nnovel v-erbB-related gene, c-erbB-2, on human chromosome 17 \nand its amplification in a gastric cancer cell line. Mol Cell Biol 6: \n955-958, 1986.\n  7. Semba K, Kamata N, Toyoshima K and Yamamoto T: A v-erbB-\nrelated protooncogene, c-erbB-2, is distinct from the c-erbB-1/\nepidermal growth factor-receptor gene and is amplified in a \nhuman salivary gland adenocarcinoma. Proc Natl Acad Sci USA \n82: 6497-6501, 1985.\n  8. Slamon DJ, Godolphin W, Jones LA, et al: Studies of the HER-2/\nneu proto-oncogene in human breast and ovarian cancer. Science \n244: 707-712, 1989.\n  9. Press MF, Cordon-Cardo C and Slamon DJ: Expression of the \nHER-2/neu proto-oncogene in normal human adult and fetal \ntissues. Oncogene 5: 953-962, 1990.\n10. Romond EH, Perez EA, Bryant J, et al: Trastuzumab plus adjuvant \nchemotherapy for operable HER2-positive breast cancer. N Engl \nJ Med 353: 1673-1684, 2005.\n11. Stebbing J, Copson E and O'Reilly S: Herceptin (trastuzamab) in \nadvanced breast cancer. Cancer Treat Rev 26: 287-290, 2000.\n12. Nahta R and Esteva FJ: Herceptin: mechanisms of action and \nresistance. Cancer Lett 232: 123-138, 2006.\n13. Agus DB, Scher HI, Higgins B, et al: Response of prostate cancer \nto anti-Her-2/neu antibody in androgen-dependent and -inde -\npendent human xenograft models. Cancer Res 59: 4761-4764, \n1999.\n14. Clamon G, Herndon J, Kern J, et al: Lack of trastuzumab activity \nin non-small cell lung carcinoma with overexpression of erb-B2: \n39810: a phase II trial of Cancer and Leukemia Group B. Cancer \n103: 1670-1675, 2005.\n15. Gong SJ, Jin CJ, Rha SY and Chung HC: Growth inhibitory \neffects of trastuzumab and chemotherapeutic drugs in gastric \ncancer cell lines. Cancer Lett 214: 215-224, 2004.\n16. Chien KR: Myocyte survival pathways and cardiomyopathy: \nimplications for trastuzumab cardiotoxicity. Semin Oncol 27: \n9-100, 2000.\n17. Sparano JA: Cardiac toxicity of trastuzumab (Herceptin): impli -\ncations for the design of adjuvant trials. Semin Oncol 28: 20-27, \n2001.\n18. Schneider JW, Chang AY and Rocco TP: Cardiotoxicity in signal \ntransduction therapeutics: erbB2 antibodies and the heart. Semin \nOncol 28: 18-26, 2001.\n19. De Lorenzo C, Tedesco A, Terrazzano G, et al : A human, \ncompact, fully functional anti-ErbB2 antibody as a novel anti-\ntumour agent. Br J Cancer 91: 1200-1204, 2004.\n20. De Lorenzo C, Palmer DB, Piccoli R, Ritter MA and D'Alessio G: \nA new human antitumor immunoreagent specific for ErbB2. Clin \nCancer Res 8: 1710-1719, 2002.21. De Lorenzo C and D'Alessio G: Human anti-ErbB2 immuno -\nagents - immunoRNases and compact antibodies. FEBS J 276: \n1527-1535, 2009.\n22. Riccio G, Esposito G, Leoncini E, et al : Cardiotoxic effects, \nor lack thereof, of anti-ErbB2 immunoagents. FASEB J 23: \n3171-3178, 2009.\n23. Gelardi T, Damiano V, Rosa R, et al: Two novel human anti-ErbB2 \nimmunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -", "immunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -\ncenter, randomized study of the efficacy and safety of two dose \nlevels of Pertuzumab, a human epidermal growth factor receptor \n2 dimerization inhibitor, in patients with human epidermal \ngrowth factor receptor 2-negative metastatic breast cancer. J Clin \nOncol 28: 1131-1137, 2010.\n25. de Bono JS, Bellmunt J, Attard G, et al: Open-label phase II study \nevaluating the efficacy and safety of two doses of pertuzumab in \ncastrate chemotherapy-naive patients with hormone-refractory \nprostate cancer. J Clin Oncol 25: 257-262, 2007.\n26. Johnson BE and Janne PA: Rationale for a phase II trial of \npertuzumab, a HER-2 dimerization inhibitor, in patients with \nnon-small cell lung cancer. Clin Cancer Res 12: S4436-S4440, \n2006.\n27. Luftig MA, Mattu M, Di Giovine P, et al: Structural basis for \nHIV-1 neutralization by a gp41 fusion intermediate-directed \nantibody. Nat Struct Mol Biol 13: 740-747, 2006.\n28. Agus DB, Akita RW, Fox WD, et al: Targeting ligand-activated \nErbB2 signaling inhibits breast and prostate tumor growth. \nCancer Cell 2: 127-137, 2002.\n29. Borsi L, Balza E, Bestagno M, et al : Selective targeting of \ntumoral vasculature: comparison of different formats of an \nantibody (L19) to the ED-B domain of fibronectin. Int J Cancer \n102: 75-85, 2002.\n30. Heinlein CA and Chang C: Androgen receptor in prostate cancer. \nEndocr Rev 25: 276-308, 2004.\n31. Gregory CW, Whang YE, McCall W, et al: Heregulin-induced \nactivation of HER2 and HER3 increases androgen receptor \ntransactivation and CWR-R1 human recurrent prostate cancer \ncell growth. Clin Cancer Res 11: 1704-1712, 2005.\n32. Hynes NE, Horsch K, Olayioye MA and Badache A: The ErbB \nreceptor tyrosine family as signal integrators. Endocr Relat \nCancer 8: 151-159, 2001.\n33. El Sheikh SS, Domin J, Abel P, Stamp G and Lalani el-N: \nAndrogen-independent prostate cancer: potential role of \nandrogen and ErbB receptor signal transduction crosstalk. \nNeoplasia 5: 99-109, 2003.\n34. Solit DB and Rosen N: Targeting HER2 in prostate cancer: where \nto next? J Clin Oncol 25: 241-243, 2007.\n35. Troise F, Cafaro V, Giancola C, D'Alessio G and De Lorenzo C: \nDifferential binding of human immunoagents and Herceptin to \nthe ErbB2 receptor. FEBS J 275: 4967-4979, 2008.\n36. Troise F, Monti M, Merlino A, et al : A novel ErbB2 epitope \ntargeted by human antitumor immunoagents. FEBS J 278: \n1156 -1166, 2011.\n37. De Lorenzo C, Troise F, Cafaro V and D'Alessio G: Combinatorial \nexperimental protocols for Erbicin-derived immunoagents and \nHerceptin. Br J Cancer 97: 1354-1360, 2007.\n38. Scheuer W, Friess T, Burtscher H, Bossenmaier B, Endl J and \nHasmann M: Strongly enhanced antitumor activity of trastu -\nzumab and pertuzumab combination treatment on HER2-positive \nhuman xenograft tumor models. Cancer Res 69: 9330-9336, \n2009.", "MAlMBER g et al:  HER2- ExPRESSIO n In PROSTATE CA nCER CE ll l InES 526\nCellular binding and processing of radiolabeled conjugates. \nthe data concerning the binding and cellular processing \nof [111in]chx -a''dtpa -trastuzumab and [111In]ABY-025 \nare presented in Fig. 3. the binding pattern was somewhat \ndifferent for the two conjugates. For Affibody molecules, an \ninitial rapid binding was followed by slow but continuous \ngrowth of the uptake up to 24 h of incubation. Such a pattern \nmay be due to continuous cell proliferation and an absence of \nhEr2 down-regulation. a similar pattern was also observed \nwith [111in]chx -a''dtpa -trastuzumab in the lnc ap cells. \nhowever, in the du-145 and pc3 cells, a rapid initial binding \nof [111in]chx -a''dtpa -trastuzumab was followed by a plateau \nafter 8 h of incubation. \nthe internalization of both conjugates demonstrated \ncontinued growth during the entire incubation period. the \ninternalization rate was approximately equal for both the \nmonoclonal antibody and the Affibody molecule. In both \ncases, internalization was moderately rapid. in the case of \n[111In]ABY-025, ~10% of cell-associated radioactivity was \ninternalized at 4 h after the initiation of incubation. at 24 h, \nthe percentage of internalized radioactivity was 38-45%. the \ninternalization rate of [111in]chx -a''dtpa -trastuzumab was \nslightly higher than that of [111In]ABY-025, with a greater \ndifference between the cell lines. For example, 50.1±2.3% of \n[111in]chx -a''dtpa -trastuzumab-delivered radioactivity was internalized by lnc ap cells at 24 h, while the corresponding \nvalue for du 145 cells was only 35.5±3.9%.\nDiscussion\ninvolvement of hEr2 in the transition to androgen inde -\npendence renders it a possible target for the therapy of \ndisseminated prostate cancer. a common choice of therapy \nfor breast cancer with documented overexpression of hEr2 is \nthe use of trastuzumab ( herceptin), a humanized monoclonal \nantibody that binds specifically to the HER2 receptor. Since \na well-established drug is already in use and has been proven \neffective for hEr2-overexpressing breast cancer tumors, the \ninvestigation of the possible use of this drug in other hEr2-\noverexpressing tumors is warranted. \nagus et al  demonstrated that trastuzumab is effective in \nandrogen-independent tumor xenografts when used in combi -\nnation with paclitaxel (23). the EGF r/hEr2 tyrosine kinase \ninhibitor lapatinib has also demonstrated a promising effect in \na pre-clinical in vitro  model (24). nevertheless, clinical trials \nconcerning the treatment of prostate cancer with trastuzumab \nor lapatinib have failed to demonstrate their efficacy (25-27). \nit must be emphasized that unselected patients were enrolled \nin these trials and, at best, only biopsies from primary tumors \nwere analyzed. An absence of patient stratification according \nto hEr2 expression level was suggested as one possible reason \nfor failure (25). however, the detection of hEr2 expression in \nprostate cancer metastases remains a challenge. there have \nFigure 1. Specificity of the binding of the radiolabeled tracers [111in]chx -a''dtpa -trastuzumab and [111In]ABY-025 to prostate cancer cells in an in vitro \nspecificity test for HER2. For each of the tracers, one group of cell culture dishes was pre-treated with saturating amounts of non-labeled counterpart before \nincubation with the [111in]-labeled tracer. cell-associated radioactivity was calculated as the percentage of total added radioactivity. reduction of cell-bound \nradioactivity due to receptor saturation confirmed specific binding. Data are presented as an average of three samples with standard deviations; error bars may \nnot be evident as they are smaller than the point symbols.\nFigure 2. non-linear regression analysis of data from a typical binding \nsaturation experiment. increasing concentrations of [111in]chx -a''dtpa -\ntrastuzumab (x-axis) were added to dishes with lnc ap cells. the cells"]</t>
+          <t>['events (SREs), including fracture, progressive bone pain, spinal\ncord compression, due to reduced bone mineral density from cas-\ntration, frequent glucocorticoid use, other than disease process.\nMore than 80–90% of patients with metastatic CRPC will develop\nbone metastases, resulting in substantial morbidity and a sig-\nniﬁcant detrimental effect on quality of life. In a double blind,\nphase III trial in men with metastatic CRPC the intravenous bis-\nphosphonate zoledronic acid (4 mg intravenously every 3 weeks)\nshowed a signiﬁcant reduction in the rate of SREs as compared\nto placebo (44.2 vs. 33.2%; p=0.021), with a delay in the time\nto a ﬁrst SRE (Saad et al., 2002). Patients who were treated\nwith zoledronic acid also had signiﬁcantly decreased in urinary\nmarkers of bone resorption. An analysis of the long-term efﬁ-\ncacy of zoledronic acid in 122 patients from the original study\nconﬁrmed a signiﬁcant trend in improved outcomes, with an\nongoing risk of experiencing a SRE reduced by 36% (Saad et al.,\n2004).\nDenosumab (XGEV A®, Amgen, Thousand Oaks, CA, USA), is\na fully human monoclonal antibody against receptor activator of\nnuclear factor-kappa B (RANK) ligand, a key protein secreted by\nstromal cells and osteoblast in response to growth factors released\nby tumor cells, which promotes osteoclast activation by binding\nthe RANK-receptor on their surface. The ligand-receptor inter-\naction causes the activation of survival and proliferation path-\nways in osteoclasts that trigger bone resorption (Li et al., 2000;\nMundy et al., 2001). Denosumab (60 mg) was ﬁrst evaluated in a\ndouble blind phase III trial of ADT-related bone loss compared\nwith placebo administered every 6 months (Smith et al., 2009).\nAfter 2 years, the lumbar spine bone mineral density increased\nby 5.6% in the denosumab arm, whereas it decreases by 1.0% in\nthe placebo arm ( p&lt;0.001), with similar increases in the bone\nmineral density of the total hip, femoral hip, and distal third of\nthe radius. These improvements led to a signiﬁcant decreased\n3 year incidence of new vertebral fractures among patients in\nthe denosumab arm ( p=0.006). In a second trial denosumab\n(120 mg subcutaneously every 4 weeks) was compared with zole-\ndronic acid (4 mg endovenously every 4 weeks), in 1,904 men withbone metastases from CRPC (Fizazi et al., 2011). In this study,\ndenosumab signiﬁcantly delayed the time to ﬁrst on-study SRE\n(HR 0.82; 95% CI, 0.71–0.95; p=0.008), with a median time\nof ﬁrst on-study SRE of 20.7 months compared to 17.1 months\nin patients receiving zoledronic acid, a difference of 3.6 months,\nand an overall risk reduction of 18%. Overall survival (HR 1.03;\n95% CI, 0.91–1.17; p=0.65) and time to cancer progression\n(HR 1.06; 95% CI, 0.95–1.18; p=0.30) were similar between\nthe two treatment arms. Adverse event rates were similar, with\nprimarily fevers, constipation, and joint pain; rates of hypocal-\ncemia were higher in the denosumab arm (13 vs 6%; p&lt;0.0001),\nwith osteonecrosis of the jaw being more frequent in the exper-\nimental arm ( p=0.09). The FDA approved in November 2010\ndenosumab for the prevention of SREs in men with metastatic\nCRPC and bone metastases. Phase III studies evaluating the abil-\nity of these agents to delay the development of bone metastases\nare ongoing.\nAlpharadin (radium-223 chloride) is a ﬁrst-in-class, highly tar-\ngeted α-emitting radiopharmaceutical under clinical evaluation\nfor CRPC patients with bone metastases. By carrying micro-\nscopic amounts of radium-223, which acts as a calcium mimic,\nalpharadin delivers high energy, short range irradiation that\ninduces double-stranded DNA breaks with lower penetration\nto surrounding tissues, compared with the β-emitting radio-\npharmaceuticals samarium-153 and strontium-89. In the phase\nIII ALSYMPCA (ALpharadin in SYMptomatic Prostate CAncer)\nalpharadin has shown both delayed time to ﬁrst SRE and an\nunprecedented OS beneﬁt (Parker et al., 2012a; Sartor et al., 2012).', 'Denosumab versus zoledronic acid\nfor treatment of bone metas-\ntases in men with castration resis-\ntant prostate cancer: a randomised,\ndouble-blind study. Lancet 377,\n813–822.\nFong, L., Kwek, S. S., O’Brien, S.,\nKavanagh, B., McNeel, D. G., Wein-\nberg, V ., Lin, A. M., Rosenberg,\nJ., Ryan, C. J., Rini, B. I., and\nSmall, E. J. (2009). Potentiating\nendogenous antitumor immunity to\nprostate cancer through combina-\ntion immunotherapy with CTLA-4\nblockade and GM–CSF. Cancer Res.\n69, 609–615.\nGulley, J. L., and Drake, C. G. (2011).\nImmunotherapy for prostate can-\ncer: recent advances, lessons learned,\nand areas for further research. Clin.\nCancer Res. 17, 3884–3891.\nHamberg, P .,Verhagen, P . C., and de Wit,\nR. (2008). When to start cytotoxic\ntherapy in asymptomatic patients\nwith hormone refractory prostate\ncancer? Eur. J. Cancer 44,1193–1197.\nHigano,C. S.,Schellhammer,P . F.,Small,\nE. J., Burchm, P . A., Nemunaitis, J.,\nYuh, L., Provost, N., and Frohlich,\nM. W. (2009). Integrated data\nfrom 2 randomized, double-blind,\nplacebo-controlled, phase 3 trials of\nactive cellular immunotherapy with\nsipuleucel-T in advanced prostate\ncancer. Cancer 115, 3670–3679.\nHigano,C. S.,Small,E. J.,Schellhammer,\nP ., Y asothan, U., Gubernick, S., Kirk-\npatrick, P ., and Kantoff, P . W. (2010).\nSipuleucel-T. Nat. Rev. Drug Discov.\n9, 513–514.\nFrontiers in Endocrinology | Cancer Endocrinology July 2012 | Volume 3 | Article 85 | 6\nFelici et al. Current approaches in CRPC treatment\nHodi, F. S., O’Day, S. J., McDermott,\nD. F., Weber, R. W., Sosman, J. A.,\nHaanen, J. B., Gonzalez, R., Robert,\nC., Schadendorf, D., Hassel, J. C.,\nAkerley, W., van den Eertwegh, A. J.,\nLutzky, J., Lorigan, P ., Vaubel, J. M.,\nLinette, G. P ., Hogg, D., Ottensmeier,\nC. H., Lebbé, C., Peschel, C., Quirt,\nI., Clark, J. I., Wolchok, J. D., Weber,\nJ. S., Tian, J., Y ellin, M. J., Nichol,\nG. M., Hoos, A., and Urba, W. J.\n(2010). Improved survival with ipil-\nimumab in patients with metasta-\ntic melanoma. N. Engl. J. Med. 363,\n711–723.\nKantoff, P . W., Halabi, S., Conaway, M.,\nPicus, J., Kirshner, J., Hars,V ., Trump,\nD., Winer, E. P ., and Vogelzang, N.\nJ. (1999). Hydrocortisone with or\nwithout mitoxantrone in men with\nhormone-refractory prostate cancer:\nresults of the cancer and leukemia\ngroup B 9182 study. J. Clin. Oncol.\n17, 2506–2513.\nKantoff, P . W., Higano, C. S., Shore,\nN. D., Berger, E. R., Small, E. J.,\nPenson, D. F., Redfern, C. H., Fer-\nrari, A. C., Dreicer, R., Sims, R. B.,\nXu, Y., Frohlich, M. W., and Schell-\nhammer, P . F. (2010a). Sipuleucel-\nT immunotherapy for castration-\nresistant prostate cancer. N. Engl. J.\nMed. 363, 411–422.\nKantoff, P . W., Schuetz, T. J., Blumen-\nstein, B. A., Glode, L. M., Bilhartz, D.\nL., Wyand, M., Manson, K., Panicali,\nD. L., Laus, R., Schlom, J., Dahut, W.\nL., Arlen, P . M., Gulley, J. L., God-\nfrey, and W. R. (2010b). Overall sur-\nvival analysis of a phase II random-\nized controlled trial of a poxviral-\nbased PSA-targeted immunotherapy\nin metastatic castration-resistant\nprostate cancer. J. Clin. Oncol. 28,\n1099–1105.\nLi, J., Sarosi, I., Y an, X. Q., Morony, S.,\nCapparelli, C., Tan, H. L., McCabe,\nS., Elliott, R., Scully, S., Van, G.,\nKaufman, S., Juan, S. C., Sun, Y.,\nTarpley, J., Martin, L., Christensen,\nK., McCabe, J., Kostenuik, P ., Hsu,\nH., Fletcher, F., Dunstan, C. R.,\nLacey, D. L., and Boyle, W. J. (2000).\nRANK is the intrinsic hematopoietic\ncell surface receptor that controls\nosteoclastogenesis and regulation of\nbone mass and calcium metabo-\nlism. Proc. Natl. Acad. Sci. U.S.A. 97,\n1566–1571.\nLiu, M. A. (2010). Immunologic basis\nof vaccine vectors. Immunity 33,\n504–515.\nMizokami, A., Koh, E., Izumi, K., Nari-\nmoto, K., Takeda, M., Honma, S.,\nDai, J., Keller, E. T., and Namiki,\nM. (2009). Prostate cancer stromal\ncells and LNCaP cells coordinately\nactivate the androgen receptorthrough synthesis of testosterone\nand dihydrotestosterone from dehy-\ndroepiandrosterone. Endocr. Relat.\nCancer 16, 1139–1155.\nMundy, G. R., Chen, D., Zhao, M.,', 'RIA analysis shows that the binding of 212Pb-conjugated to \nErbB2 in recombinant ErbB2/Fc chimera protein-coated wells \nwas completely blocked by the presence of free form ErbB2/Fc \nand demonstrates a highly specific binding of 212Pb-trastuzumab. \nCurve fitting analysis showed that the equilibration dissociation \nconstant (Kd) of the binding was 2.86±0.25 nM (Fig. 1C). The \nKd for analysis of 212Pb-trastuzumab from three independent \nconjugations was 3.9±0.99 nM, further indicating the reproduc -\nibility of the procedure. Taken together, these data indicated \nthat we have successfully radiolabeled 212Pb eluted from the \ngenerator to intact and functional trastuzumab.\nIdentification of tumor model for therapy studies. Expression of \nHER2 and EGFR was analyzed in several lines of human pros -\ntate cancer cells used most commonly in preclinical studies. As \nshown in Fig. 2A, PC-3MM2 cells expressed the lowest level of \nHER2 among all cell lines examined. Whereas HER2 expres -\nsion was readily stained by IHC in tumors formed by LNCaP \nand LAPC-4 cells, it was almost undetectable in tumors formed \nby PC-3MM2 cells (Fig. 2B). To investigate the effectiveness of \n212Pb-trastuzumab therapy on tumors expressing relatively lower \nFigure 1. Characterization of 212Pb-trastuzumab. (A and B) After the radio -\nlabeling of 212Pb to trastuzumab, the reaction was quenched with EDTA and \nthe free 212Pb was removed using a PD-10 column. The 212Pb-trastuzumab was \nsampled before (lane 1) and after purification (lane 2) for SDS-PAGE analysis \nwith unlabeled trastuzumab (lane 3) to determine the integrity of the labeled \nprotein. Human serum albumin (HSA) was added to purified 212Pb-trastuzumab \nfor stabilization. (C) The radioimmunoassay (RIA) was performed to determine \naffinity of 212Pb-trastuzumab to HER2.\nTAN  et al:  HER2 TARGETING IMMUNORADIATION AGAINST PROSTATE CANCER 1884\nlevel of HER2, the orthotopic model of PC-3MM2 tumor was \nchosen to perform the preclinical therapy studies.\nSignificant therapeutic effects of 212Pb-trastuzumab. PC-3MM2 \ncells were inoculated into the prostates of nude mice. After \none week, when the prostatic tumors reached ~50-100 mg (45), \ntumor-bearing mice were randomized and treated with a single \ni.v. injection of 10 or 20 µCi 212Pb-trastuzumab. Tumor-bearing \ncontrol mice were left untreated or i.v. injected with 45 µg/\nmouse, a dose equivalent to trastuzumab present in 20 µCi \n212Pb-trastuzumab. Mice were sacrificed 21 days after the \ntreatment to evaluate tumor volumes and metastasis. As shown \nin Fig. 3A, a single injection of unconjugated trastuzumab did \nnot affect the growth of PC-3MM2 tumors. In contrast, growth \nof PC-3MM2 tumors was significantly suppressed in mice \ntreated with 10 and 20 µCi 212Pb-trastuzumab. Tumor weights \nin 212Pb-trastuzumab treated mice were 36 and 60% (p&lt;0.05) \nof the weight of tumors in untreated or trastuzumab-treated \nmice. Tumor growth retardation was 74% (p&lt;0.05) using 20 µCi \n212Pb-trastuzumab when the experiment was repeated. Aortic \nlymph node metastases were observed in all control mice but \nin only 40% of the mice treated with 20 µCi 212Pb-trastuzumab.\nThe efficacy of 212Pb-trastuzumab therapy on survival \nwas evaluated using tumor-bearing mice treated with 20 µCi \n212Pb-trastuzumab. Effects on survival of tumor-bearing mice \nshow that treatment prolonged survival (p=0.0046) with a \nmedian (50%) survival rate of 47 and 61 days for untreated and \nFigure 2. Determination of HER2 expression in human prostate cancer cells. \n(A) Cell lysates were prepared from several lines of human prostate cancer cells \nand analyzed by immunoblotting. (A) Lysate from MCF-7 human breast cancer \ncells was analyzed in the same gel as a positive control. (B) Paraffin-embedded \nsections from tumors formed by PC-3MM2, LNCaP, and LAPC-4 cells in nude \nmice were stained by IHC using antibody against HER2.', "MALARA et al:  Anti-ErbB2 ANTIBODY FOR PROSTATE CANCER 302\nReferences\n  1. Jemal A, Murray T, Ward E, et al: Cancer statistics, 2005. CA \nCancer J Clin 55: 10-30, 2005.\n  2. Smith PC, Hobisch A, Lin DL, Culig Z and Keller ET: \nInterleukin-6 and prostate cancer progression. Cytokine Growth \nFactor Rev 12: 33-40, 2001.\n  3. Yeh S, Lin HK, Kang HY, Thin TH, Lin MF and Chang C: From \nHER2/Neu signal cascade to androgen receptor and its coacti -\nvators: a novel pathway by induction of androgen target genes \nthrough MAP kinase in prostate cancer cells. Proc Natl Acad Sci \nUSA 96: 5458-5463, 1999.\n  4. Graus-Porta D, Beerli RR, Daly JM and Hynes NE: ErbB-2, the \npreferred heterodimerization partner of all ErbB receptors, is a \nmediator of lateral signaling. EMBO J 16: 1647-1655, 1997.\n  5. Lohrisch C and Piccart M: HER2/neu as a predictive factor in \nbreast cancer. Clin Breast Cancer 2: 129-137, 2001.\n  6. Fukushige S, Matsubara K, Yoshida M, et al: Localization of a \nnovel v-erbB-related gene, c-erbB-2, on human chromosome 17 \nand its amplification in a gastric cancer cell line. Mol Cell Biol 6: \n955-958, 1986.\n  7. Semba K, Kamata N, Toyoshima K and Yamamoto T: A v-erbB-\nrelated protooncogene, c-erbB-2, is distinct from the c-erbB-1/\nepidermal growth factor-receptor gene and is amplified in a \nhuman salivary gland adenocarcinoma. Proc Natl Acad Sci USA \n82: 6497-6501, 1985.\n  8. Slamon DJ, Godolphin W, Jones LA, et al: Studies of the HER-2/\nneu proto-oncogene in human breast and ovarian cancer. Science \n244: 707-712, 1989.\n  9. Press MF, Cordon-Cardo C and Slamon DJ: Expression of the \nHER-2/neu proto-oncogene in normal human adult and fetal \ntissues. Oncogene 5: 953-962, 1990.\n10. Romond EH, Perez EA, Bryant J, et al: Trastuzumab plus adjuvant \nchemotherapy for operable HER2-positive breast cancer. N Engl \nJ Med 353: 1673-1684, 2005.\n11. Stebbing J, Copson E and O'Reilly S: Herceptin (trastuzamab) in \nadvanced breast cancer. Cancer Treat Rev 26: 287-290, 2000.\n12. Nahta R and Esteva FJ: Herceptin: mechanisms of action and \nresistance. Cancer Lett 232: 123-138, 2006.\n13. Agus DB, Scher HI, Higgins B, et al: Response of prostate cancer \nto anti-Her-2/neu antibody in androgen-dependent and -inde -\npendent human xenograft models. Cancer Res 59: 4761-4764, \n1999.\n14. Clamon G, Herndon J, Kern J, et al: Lack of trastuzumab activity \nin non-small cell lung carcinoma with overexpression of erb-B2: \n39810: a phase II trial of Cancer and Leukemia Group B. Cancer \n103: 1670-1675, 2005.\n15. Gong SJ, Jin CJ, Rha SY and Chung HC: Growth inhibitory \neffects of trastuzumab and chemotherapeutic drugs in gastric \ncancer cell lines. Cancer Lett 214: 215-224, 2004.\n16. Chien KR: Myocyte survival pathways and cardiomyopathy: \nimplications for trastuzumab cardiotoxicity. Semin Oncol 27: \n9-100, 2000.\n17. Sparano JA: Cardiac toxicity of trastuzumab (Herceptin): impli -\ncations for the design of adjuvant trials. Semin Oncol 28: 20-27, \n2001.\n18. Schneider JW, Chang AY and Rocco TP: Cardiotoxicity in signal \ntransduction therapeutics: erbB2 antibodies and the heart. Semin \nOncol 28: 18-26, 2001.\n19. De Lorenzo C, Tedesco A, Terrazzano G, et al : A human, \ncompact, fully functional anti-ErbB2 antibody as a novel anti-\ntumour agent. Br J Cancer 91: 1200-1204, 2004.\n20. De Lorenzo C, Palmer DB, Piccoli R, Ritter MA and D'Alessio G: \nA new human antitumor immunoreagent specific for ErbB2. Clin \nCancer Res 8: 1710-1719, 2002.21. De Lorenzo C and D'Alessio G: Human anti-ErbB2 immuno -\nagents - immunoRNases and compact antibodies. FEBS J 276: \n1527-1535, 2009.\n22. Riccio G, Esposito G, Leoncini E, et al : Cardiotoxic effects, \nor lack thereof, of anti-ErbB2 immunoagents. FASEB J 23: \n3171-3178, 2009.\n23. Gelardi T, Damiano V, Rosa R, et al: Two novel human anti-ErbB2 \nimmunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -", "immunoagents are active on trastuzumab-resistant tumours. Br J \nCancer 102: 513-519, 2010.\n24. Gianni L, Llado A, Bianchi G, et al: Open-label, phase II, multi -\ncenter, randomized study of the efficacy and safety of two dose \nlevels of Pertuzumab, a human epidermal growth factor receptor \n2 dimerization inhibitor, in patients with human epidermal \ngrowth factor receptor 2-negative metastatic breast cancer. J Clin \nOncol 28: 1131-1137, 2010.\n25. de Bono JS, Bellmunt J, Attard G, et al: Open-label phase II study \nevaluating the efficacy and safety of two doses of pertuzumab in \ncastrate chemotherapy-naive patients with hormone-refractory \nprostate cancer. J Clin Oncol 25: 257-262, 2007.\n26. Johnson BE and Janne PA: Rationale for a phase II trial of \npertuzumab, a HER-2 dimerization inhibitor, in patients with \nnon-small cell lung cancer. Clin Cancer Res 12: S4436-S4440, \n2006.\n27. Luftig MA, Mattu M, Di Giovine P, et al: Structural basis for \nHIV-1 neutralization by a gp41 fusion intermediate-directed \nantibody. Nat Struct Mol Biol 13: 740-747, 2006.\n28. Agus DB, Akita RW, Fox WD, et al: Targeting ligand-activated \nErbB2 signaling inhibits breast and prostate tumor growth. \nCancer Cell 2: 127-137, 2002.\n29. Borsi L, Balza E, Bestagno M, et al : Selective targeting of \ntumoral vasculature: comparison of different formats of an \nantibody (L19) to the ED-B domain of fibronectin. Int J Cancer \n102: 75-85, 2002.\n30. Heinlein CA and Chang C: Androgen receptor in prostate cancer. \nEndocr Rev 25: 276-308, 2004.\n31. Gregory CW, Whang YE, McCall W, et al: Heregulin-induced \nactivation of HER2 and HER3 increases androgen receptor \ntransactivation and CWR-R1 human recurrent prostate cancer \ncell growth. Clin Cancer Res 11: 1704-1712, 2005.\n32. Hynes NE, Horsch K, Olayioye MA and Badache A: The ErbB \nreceptor tyrosine family as signal integrators. Endocr Relat \nCancer 8: 151-159, 2001.\n33. El Sheikh SS, Domin J, Abel P, Stamp G and Lalani el-N: \nAndrogen-independent prostate cancer: potential role of \nandrogen and ErbB receptor signal transduction crosstalk. \nNeoplasia 5: 99-109, 2003.\n34. Solit DB and Rosen N: Targeting HER2 in prostate cancer: where \nto next? J Clin Oncol 25: 241-243, 2007.\n35. Troise F, Cafaro V, Giancola C, D'Alessio G and De Lorenzo C: \nDifferential binding of human immunoagents and Herceptin to \nthe ErbB2 receptor. FEBS J 275: 4967-4979, 2008.\n36. Troise F, Monti M, Merlino A, et al : A novel ErbB2 epitope \ntargeted by human antitumor immunoagents. FEBS J 278: \n1156 -1166, 2011.\n37. De Lorenzo C, Troise F, Cafaro V and D'Alessio G: Combinatorial \nexperimental protocols for Erbicin-derived immunoagents and \nHerceptin. Br J Cancer 97: 1354-1360, 2007.\n38. Scheuer W, Friess T, Burtscher H, Bossenmaier B, Endl J and \nHasmann M: Strongly enhanced antitumor activity of trastu -\nzumab and pertuzumab combination treatment on HER2-positive \nhuman xenograft tumor models. Cancer Res 69: 9330-9336, \n2009."]</t>
         </is>
       </c>
     </row>
@@ -551,13 +553,14 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>Based on the information provided in the context, Hirschsprung disease (HSCR) appears to be a multifactorial disorder with a complex genetic etiology, rather than a simple Mendelian disorder. Key points that support this:
-1. The article states that HSCR "has a complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
-2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR in a "multifactorial nature".
-3. The study found evidence for a "synergistic effect" between RET rare variants and common variants leading to the HSCR phenotype, supporting an "additive/multiplicative model".
-4. There is mention of gender effects and variable penetrance, which are typical of multifactorial disorders.
-5. Even with comprehensive genetic analysis, some HSCR cases (13% in this study) had no identified RET mutations, suggesting other genes or factors are involved.
-6. The authors refer to the "complex nature of Hirschsprung disease" multiple times.
-So while certain genes like RET play a major role, HSCR appears to result from a combination of multiple genetic and potentially environmental factors, rather than following simple Mendelian inheritance patterns. This complex, multifactorial etiology is a key conclusion of the research presented.</t>
+1. The article states that HSCR has a "complex genetic etiology with several genes being described as associated with either isolated or syndromic forms."
+2. It mentions that both rare variants (RVs) and common variants (CVs) in the RET gene contribute to HSCR in a "multifactorial nature."
+3. The authors describe an "additive/multiplicative model" for HSCR, suggesting multiple genetic factors interact.
+4. There is evidence of synergistic effects between different RET variants - the common enhancer variant often occurs in trans with rare coding mutations.
+5. The disease shows incomplete penetrance and variable expressivity, with sex-dependent effects noted.
+6. Some HSCR cases lack identified RET mutations, suggesting other genes or factors are involved.
+7. Environmental factors are not ruled out as potentially contributing.
+So while RET is a major gene involved, HSCR does not follow simple Mendelian inheritance patterns and appears to result from a combination of genetic and potentially environmental risk factors, characteristic of a multifactorial disorder. The authors' approach of analyzing both rare and common variants reflects this complex etiology.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -589,12 +592,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Based on the context provided, it appears that RANKL is secreted from cells. Specifically:
+          <t>Based on the context provided, it appears that RANKL is secreted from cells, specifically osteoblasts. A few key points support this:
 1. The study measured RANKL levels in the culture medium of osteoblasts using ELISA, indicating RANKL is secreted into the medium.
-2. Table II shows RANKL levels detected in the culture medium of osteoblasts in both single-culture and co-culture conditions.
-3. The text states "The OPG/RANKL ratio secreted by co-cultured osteoblasts compared with single-cultured was identified by ELISA analysis of cell culture medium", again indicating RANKL is secreted.
-4. The study discusses the "RANKL/OPG ratio secreted by pre-osteoblasts", implying RANKL is secreted along with OPG.
-So in summary, the context provides multiple indications that RANKL is secreted from cells, particularly osteoblasts, into the culture medium where it can be detected and measured. The secretion of RANKL allows it to act as a signaling molecule in the bone microenvironment.</t>
+2. Table II shows RANKL levels detected in the culture medium of osteoblasts in both single-culture and co-culture conditions. 
+3. The text states "The OPG/RANKL ratio secreted by co-cultured osteoblasts compared with single-cultured was identified by ELISA analysis of cell culture medium".
+4. It mentions that "adipocyte-secreted cytokines affected the OPG/RANKL/RANK trail system", implying RANKL is part of a secreted system.
+5. The study discusses the balance of secreted OPG/RANKL as an important mechanism regulating bone metabolism.
+So in summary, yes, the context indicates that RANKL is secreted from cells, particularly osteoblasts, into the extracellular environment where it can interact with its receptor RANK on other cells like osteoclasts. The ability to detect and measure RANKL in the culture medium demonstrates it is a secreted factor.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -626,19 +630,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Based on the context provided, there are mixed findings regarding the potential use of trastuzumab (Herceptin) for treating prostate cancer:
+          <t>Based on the context provided, there is mixed evidence regarding the potential use of trastuzumab (Herceptin) for treating prostate cancer:
 Potential benefits:
 1. HER2 is overexpressed in 20-30% of prostate cancers and up to 78% of androgen-independent prostate cancers, suggesting it could be a promising target.
-2. Preclinical studies showed some effectiveness:
-- Trastuzumab reduced tumor growth by 60-80% and prolonged survival in a mouse model of prostate cancer. 
+2. Preclinical studies showed some efficacy:
+- Trastuzumab reduced tumor growth by 60-80% in a mouse model of prostate cancer. 
 - It was effective in androgen-independent tumor xenografts when combined with paclitaxel.
 3. HER2 contributes to prostate cancer progression and androgen independence, so targeting it could be beneficial.
 Limitations:
 1. Clinical trials with trastuzumab as a single agent showed poor efficacy in treating hormone-refractory prostate cancer. 
-2. Some prostate cancer cell lines were found to be resistant or less sensitive to trastuzumab compared to breast cancer.
-3. Clinical trials with trastuzumab or other HER2-targeting agents like lapatinib failed to demonstrate efficacy in unselected prostate cancer patients.
-4. The lack of patient selection based on HER2 expression levels may have contributed to the negative clinical trial results.
-In conclusion, while there is a rationale for targeting HER2 in prostate cancer, the clinical effectiveness of trastuzumab as a single agent appears limited based on current evidence. Patient selection and combination approaches may be needed to realize its potential benefits in prostate cancer treatment. More research is likely needed to determine its optimal use in this disease.</t>
+2. Several clinical trials failed to show benefits using trastuzumab or other HER2-targeting agents for prostate cancer.
+3. Prostate cancers often express lower levels of HER2 compared to breast cancers, potentially limiting efficacy.
+4. Lack of patient selection based on HER2 expression levels may have contributed to clinical trial failures.
+In conclusion, while there is a rationale for targeting HER2 in prostate cancer, clinical results with trastuzumab have been disappointing so far. More research is needed, potentially with improved patient selection or combination therapies, before trastuzumab can be considered a viable treatment option for prostate cancer. The context suggests exploring alternative HER2-targeting approaches may be more promising.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -670,7 +674,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Based on the context provided, the signaling molecules (ligands) that interact with the EGFR receptor are:
+          <t>Based on the context provided, the following signaling molecules (ligands) are known to interact with EGFR:
 1. Epidermal growth factor (EGF)
 2. Betacellulin (BTC) 
 3. Heparin-binding EGF-like growth factor (HB-EGF)
@@ -678,7 +682,7 @@
 5. Epiregulin (EPR)
 6. Transforming growth factor-α (TGF-α)
 7. Epigen (EPG)
-The passage states: "Seven different ligands are known to bind to EGFR: epidermal growth factor (EGF), betacellulin (BTC), heparin-binding EGF-like growth factor (HB-EGF), amphiregulin (AR), epiregulin (EPR), transforming growth factor-α (TGF-α), and epigen (EPG)."</t>
+The passage states: "Seven different ligands are known to bind to EGFR:" and then lists these 7 molecules.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -710,12 +714,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, orteronel (TAK-700) was developed for the treatment of metastatic castration-resistant prostate cancer (mCRPC). Specifically:
-1. The study described is a phase I/II trial of orteronel in "patients with metastatic castration-resistant prostate cancer".
-2. It states that orteronel is an "investigational, oral, nonsteroidal, selective, reversible inhibitor of 17,20-lyase, a key enzyme in the production of androgenic hormones."
-3. The study enrolled men with "progressive, chemotherapy-naïve, metastatic castration-resistant prostate cancer".
-4. The results show effects on prostate-specific antigen (PSA) levels and testosterone levels, which are relevant markers for prostate cancer.
-So orteronel was clearly being developed and investigated as a potential treatment for metastatic castration-resistant prostate cancer.</t>
+          <t>Based on the context provided, orteronel (TAK-700) was developed for the treatment of metastatic castration-resistant prostate cancer (mCRPC). Specifically:
+- The study described was conducted in men with "progressive, chemotherapy-naïve, metastatic castration-resistant prostate cancer".
+- It states that orteronel is an "investigational, oral, nonsteroidal, selective, reversible inhibitor of 17,20-lyase, a key enzyme in the production of androgenic hormones."
+- The study evaluated orteronel's effects on prostate-specific antigen (PSA) levels, testosterone levels, and tumor responses in patients with mCRPC.
+- The introduction discusses how androgen receptor signaling remains active in prostate cancer that has progressed despite castration, providing the rationale for developing a 17,20-lyase inhibitor like orteronel to further suppress androgen production in mCRPC.
+So in summary, orteronel was specifically developed as a potential treatment for metastatic castration-resistant prostate cancer.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -747,12 +751,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Based on the information provided in the context, Pannexin1 (Panx1) is located in the following places:
-1. At the plasma membrane - The context states that Panx1 "traffic to the plasma membrane".
-2. In neurons and astrocytes in the central nervous system - The passage mentions that Panx1 is "expressed in significant levels in neurons and astrocytes".
-3. Ubiquitously throughout the body - The text notes that Panx1 is "fairly ubiquitous".
-4. In distinct subcellular compartments from Pannexin2 in astrocytes and neurons - The context indicates that "Panx1 and Panx2, localized at different subcellular compartments in both astrocytes and neurons."
-So in summary, Pannexin1 is primarily found at the plasma membrane of cells throughout the body, including neurons and astrocytes in the brain, but in distinct locations from Pannexin2 within those cell types. Its localization at the plasma membrane allows it to form channels for ATP release and intercellular signaling.</t>
+          <t>Based on the information provided in the context, Pannexin1 (Panx1) is located primarily at the plasma membrane. Specifically:
+- The context states that Panx1 "traffic to the plasma membrane and have functions correlated with extracellular ATP release."
+- It mentions that Panx1 forms "ATP release channels" and interacts with purinergic receptors as part of ATP signaling pathways, indicating a plasma membrane localization. 
+- In discussing subcellular localization, it notes that Panx1 and Panx2 have "non-overlapping" localizations, with Panx2 being found intracellularly while Panx1 is implied to be at the cell surface.
+- When describing immunolabeling of hippocampal sections, it states that Panx1 and Panx2 "localized at different subcellular compartments", again suggesting Panx1 is at the plasma membrane while Panx2 is intracellular.
+So in summary, the context consistently indicates that Pannexin1 is primarily localized to and functions at the plasma membrane of cells, in contrast to the intracellular localization of Pannexin2.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -788,9 +792,9 @@
 Pyridostigmine (Mestinon)
 The passage states:
 "In MG, the first-line option is symptomatic treatment with acetylcholinesterase inhibitors."
-It then specifically mentions pyridostigmine:
+And it specifically mentions:
 "Schwarz H. Mestinon (pyridostigmine bromide) in myasthenia gravis. Can Med Assoc J. 1956;75(2):98–100."
-So pyridostigmine (brand name Mestinon) is the key acetylcholinesterase inhibitor used as first-line symptomatic treatment for myasthenia gravis, according to the information provided.</t>
+So pyridostigmine (brand name Mestinon) is the primary acetylcholinesterase inhibitor used as symptomatic treatment for myasthenia gravis. The passage does not mention any other specific acetylcholinesterase inhibitors used for this condition.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -859,13 +863,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Based on the context provided, the mammalian Notch receptor isoforms mentioned are:
+          <t>Based on the context provided, the mammalian Notch receptor has multiple isoforms, including:
 1. NOTCH1
 2. NOTCH3 
 3. NOTCH4
-Specifically, the passage states:
-"NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells [53,54,55,56] (data not shown). The ectodomains of these isoforms of NOTCH, like NOTCH3, are composed of a large number of EGF-like domain repeats."
-This indicates that NOTCH1, NOTCH3, and NOTCH4 are different isoforms of the mammalian Notch receptor that are expressed in blood vessels and smooth muscle cells. The text focuses primarily on NOTCH3 but mentions NOTCH1 and NOTCH4 as additional isoforms.</t>
+Specifically, the passage mentions:
+"NOTCH1 and NOTCH4 are also expressed in blood vessels and A7R5 smooth muscle cells"
+And it discusses interactions between NOTCH3 and these other isoforms:
+"In cotransfection assays, we also found that wildtype and mutant NOTCH3 formed stable complexes with NOTCH1 and NOTCH4 ectodomains"
+So the context indicates that NOTCH1, NOTCH3, and NOTCH4 are different isoforms of the mammalian Notch receptor that are expressed in vascular tissues. The passage focuses primarily on NOTCH3 but demonstrates it can interact with these other Notch isoforms as well.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -897,10 +903,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Based on the context provided, the following mitochondrial diseases have been attributed to POLG mutations:
-1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and recessive forms of PEO can be caused by POLG mutations. The report specifically mentions that "Autosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with multiple mitochondrial DNA deletions and can be caused by missense mutations in POLG".
-2. A disorder resembling mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features similar to MNGIE who were found to have POLG mutations rather than the typical TP mutations seen in MNGIE. 
-3. The report notes that recessive PEO patients with POLG mutations can have variable associated features including:
+          <t>Based on the context provided, the following mitochondrial diseases have been attributed to mutations in the POLG gene encoding mitochondrial DNA polymerase gamma:
+1. Progressive external ophthalmoplegia (PEO) - Both autosomal dominant and recessive forms of PEO can be caused by POLG mutations. PEO is characterized by weakness of the eye muscles and is often associated with other symptoms.
+2. A condition mimicking mitochondrial neurogastrointestinal encephalomyopathy (MNGIE) - The report describes patients with features resembling MNGIE who were found to have POLG mutations rather than the typical thymidine phosphorylase mutations seen in MNGIE. 
+3. A heterogeneous group of disorders with features that can include:
 - Axonal sensory neuropathy
 - Sensory ataxia  
 - Cardiomyopathy
@@ -909,9 +915,10 @@
 - Thalamic lesions
 - Muscle dystrophy
 - Facial diplegia
-- Dysarthria 
+- Dysarthria
 - Dysphagia
-So in summary, POLG mutations have been associated with PEO and PEO-like disorders with variable additional neurological, muscular and systemic manifestations. The phenotype can resemble MNGIE in some cases, even without the typical leukoencephalopathy seen in MNGIE.</t>
+The context notes that recessive POLG mutations can cause a "protean presentation" with variable associated features beyond the common symptoms of PEO and axonal sensory neuropathy.
+The report expands the known clinical spectrum of POLG mutations to include severe gastrointestinal dysmotility resembling that seen in MNGIE. However, it notes that leukoencephalopathy, which is typical in MNGIE, has not been reported with POLG mutations.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -921,12 +928,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1186_1757-2215-6-82.pdf']</t>
+          <t>['10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1038_sj.ejhg.5201002.pdf', '10.1371_journal.pone.0044964.pdf']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'caused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of\nMNGIE caused by TPmutations.8,11The more severe\nphenotype in the present family versus previously described\nrecessive PEO patients with POLG mutations might result\nfrom a greater functional impairment of POLG induced by\nthe three mutations together. Also, depending on the\nlocation of the mutation within POLG a more or less severe\neffect on POLG functioning may result. In this respect, it is\nworth mentioning that N864S involves a highly conserved\nsequence block close to the POLG polymerase motif A, and\nthat T251I is located between the POLG exonuclease motifs\nI and II (Figure 1b). Data from the current literature show\nthat the clinical phenotype of recessive PEO patients with\nPOLG mutations is quite heterogeneous. Common features\ninclude PEO and axonal sensory neuropathy but associated\nfeatures are quite variable, including sensory ataxia,\ncardiomyopathy, retinopathy, sensorineural hearing loss,\nthalamic lesions, muscle dystrophy, facial diplegia, dysar-\nthria and dysphagia.5,6This protean presentation of\nrecessive POLG mutations contrasts with the apparently\nhomogeneous clinical picture of MNGIE, which is caused\nby mutations in TP.8Only the absence of leukoencephalo-\npathy on brain MRI could distinguish our patients from\nthose with TPmutations. However, in earlier descriptive\nstudies on MNGIE, leukoencephalopathy was not an\ninclusion criterion.11On the other hand, leukoencephalo-\npathy has not yet been encountered in patients with POLG\nmutations,5,6,12and it has been suggested that in MNGIE\npatients leukoencephalopathy could be related to the role\nthat TPplays in glial cell proliferation or cortical neuron\ntrophism, which is unrelated to the effect of TPonnucleotide metabolism.7If further studies on TPand POLG\nin patients with recessive PEO or MNGIE characterized\nby multiple mtDNA deletions would confirm these data,\nbrain MRI could be used as a noninvasive test to diff-\nerentiate patients with TPmutations from those with POLG\nmutations.\nAcknowledgements\nThis work was in part supported by a grant from the Danish National\nResearch Foundation (504-14). BD is a doctoral fellow of the Fund for\nScientific Research-Flanders (FWO-F).\nReferences\n1 Zeviani M, Servidei S, Gellera C, Bertini E, DiMauro S, DiDonato\nS: An autosomal dominant disorder with multiple deletions of\nmitochondrial DNA starting at the D-loop region. Nature 1989;\n339: 309–311.\n2 Kaukonen J, Juselius JK, Tiranti V et al: Role of adenine nucleotide\ntranslocator 1 in mtDNA maintenance. Science 2000; 289:\n782–785.\n3 Spelbrink JN, Li FY, Tiranti V et al: Human mitochondrial DNA\ndeletions associated with mutations in the gene encoding\nTwinkle a, phage T7 gene 4-like protein localized in\nmitochondria. Nat Genet 2001; 28: 223–231.\n4 Van Goethem G, Dermaut B, Lofgren A, Martin JJ, Van\nBroeckhoven C: Mutation of POLG is associated with\nprogressive external ophthalmoplegia characterized by mtDNA\ndeletions. Nat Genet 2001; 28: 211–212.\n5 Lamantea E, Tiranti V, Bordoni A et al : Mutations of mito-\nchondrial DNA polymerase gammaA are a frequent cause of\nautosomal dominant or recessive progressive external ophthal-\nmoplegia. Ann Neurol 2002; 52: 211–219.\n6 Van Goethem G, Martin JJ, Dermaut B et al : Recessive POLG\nmutations presenting with sensory and ataxic neuropathy in\ncompound heterozygote patients with progressive external\nophthalmoplegia. Neuromuscul Disord 2002; 13: 133–142.\n7 Nishino I, Spinazzola A, Hirano M: Thymidine phosphorylase\ngene mutations in MNGIE, a human mitochondrial disorder.\nScience 1999; 283: 689–692.\n8 Nishino I, Spinazzola A, Papadimitriou A et al : Mitochondrial\nneurogastrointestinal encephalomyopathy: an autosomal\nrecessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions', 'described elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,\naxonal sensory ataxic neuropathy, muscle weakness and\ncachexia. Brain MRI was normal. Muscle biopsy demon-\nstrated few ragged red fibers, cytochrome coxidase\nnegative fibers, decreased enzymatic activities of respira-\ntory chain complexes I and IV, depletion of mtDNA and\nmultiple mtDNA deletions. Direct sequencing revealed\nhomozygosity for a common polymorphism in TPbut no\npathogenic mutations and enzymatic TP activity in\nleukocytes was normal.9The pedigree of the recessive\nfamily is shown in Figure 1a.\nIn both the patients, pathogenic mutations in TPhad\nbeen excluded previously.9The fact that axonal predomi-\nnantly sensory peripheral neuropathy is common in\nrecessive PEO patients with POLG mutations,6prompted\nus to analyze POLG. Sequencing of all coding POLG exons\nusing flanking intronic primers4in the proband (II.4)\nrevealed the presence of three single-base changes. One\nmutation in exon 3 (c.752C -T), predicting the amino-\nacid substitution T251I, has already been reported in fourItalian compound heterozygote recessive PEO patients of\nthree unrelated families, while absent in Italian control\nindividuals.5The other two mutations, in exons 10\n(c.1760C -T) and 16 (c.2591A -T), are novel and predict\nP587L and N864S substitutions, respectively. Segregation\nof the mutations within the family is depicted in Figure 1a.\nDNA from the deceased affected sister (II.1) had to be\nrecovered from paraffin-embedded tissue and we were only\nable to demonstrate the presence of T251I in this patient.\nThe occurrence of N864S in her unaffected son (III.1, aged\n24 years), however, demonstrated that she is an obligate\ncarrier of this mutation. The unaffected grandmother (I.2)\nand grandson (III.1) are heterozygote carriers of N864S,\nindicating that N864S is in trans with the other two\nmutations, T251I and P587L. The cisconfiguration of\nT251I and P587L is confirmed by their heterozygous\nappearance in the unaffected granddaughter (III.2, aged\n12 years). The segregation in the family is consistent with\nthe recessive nature of the three POLG mutations with the\ntwo patients being compound heterozygotes. All three\nmutations (T251I, P587L and N864S) were absent in 280\ncontrol chromosomes (90 Belgian and 50 Danish healthy\ncontrol individuals). Belgian controls were examined using\nFigure 1 (a) Segregation analysis of POLG mutations. Squares represent males, circles represent females, filled symbols represent\naffected individuals and slashed symbols represent deceased individuals. Alleles/haplotypes between brackets were reconstructed\nfrom the pedigree data. ( b) Position of mutant residues in POLG and amino-acid sequence alignment, showing evolutionary\nconservation of altered residues.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n548\nEuropean Journal of Human Genetics\nthe pyrosequencing technique,10whereas Danish controls\nwere tested by restriction enzyme digestion (T251I destroys\naBsrI site, P587L creates an Xmn I site and N864S creates a\nBsp1286I site). The three mutations apparently have a low\nfrequency in the population examined ( o0.36%) and thus\nare rare polymorphisms. All three mutations in this family\nalter evolutionary conserved residues (Figure 1b). Since\nthere are currently no methods available for studying the\nfunctional effects of POLG mutations in vivo , we cannot\nreach a conclusion about the pathogenic nature of the\nthree POLG mutations. Also, we cannot exclude that either\nall three POLG mutations or one of the two possible trans\ncombinations contribute to the phenotype in the patients.\nOur finding expands the clinical spectrum of recessive\nPOLG mutations since severe gastrointestinal features\ncaused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of', 'recessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions\nwith features of MNGIE. Neurology 2002; 59: 926–929.\n10 Alderborn A, Kristofferson A, Hammerling U: Determination of\nsingle-nucleotide polymorphisms by real-time pyrophosphate\nDNA sequencing. Genome Res 2000; 10: 1249–1258.\n11 Hirano M, Silvestri G, Blake DM et al : Mitochondrial neuro-\ngastrointestinal encephalomyopathy (MNGIE): clinical, biochemical,\nand genetic features of an autosomal recessive mitochondrial\ndisorder. Neurology 1994; 44: 721–727.\n12 Van Goethem G, Martin JJ, Lofgren A et al: Unusual presentation\nand clinical variability in Belgian pedigrees with progressive\nexternal ophthalmoplegia and multiple deletions of mito-\nchondrial DNA. Eur J Neurol 1997; 4: 476–484.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n549\nEuropean Journal of Human Genetics', 'reproduction in any medium, provided the original work is properly cited. The Creative Commons Public Domain Dedication\nwaiver (http://creativecommons.org/publicdomain/zero/1.0/) applies to the data made available in this article, unless otherwise\nstated.Lane et al. Journal of Ovarian Research 2013, 6:82\nhttp://www.ovarianresearch.com/content/6/1/82\nof tumor cells [13]. TRAIL binding to its receptors\n(TRAIL-R1 and TRAIL-R2) initiates the extrinsic pathway\nof apoptosis, resulting in recru itment of the adapter protein\nFas-associated death domain (FADD) and procaspase-8 in\nthe death inducing signaling complex (DISC). Caspase-8\ncan directly activate the effector caspases (caspase ‐3,‐6,‐7)\nleading to the execution of apoptosis [14]. However, in\novarian cancer cells, the apoptotic signal must be further\namplified by engaging the intrin sic (mitochondrial) pathway\n[15]. In this context, caspase-8 cleaves Bid to generate\nan active tBid, which in turn activates proapoptotic\nBax or Bak proteins, and induces mitochondrial outermembrane permeabilization (MOMP). The mitochondria\nthen release proapoptotic factors that promote effector\ncaspases activation.\nSeveral reports have shown that OPG is a survival factor\nthat can block TRAIL-induced apoptosis in tumor cells.\nHuman prostate cancer cells were shown to secrete OPGat concentrations sufficie nt to inhibit TRAIL-induced\napoptosis in vitro [16,17]. Similarly, multiple myeloma\ncells were protected from TRAIL-induced apoptosis byOPG secreted from osteoblast-like cells and bone marrow\nstroma cells [18]. OPG produced by breast cancer cells en-\nhances tumor cell survival in vitro and in vivo by inhibit-\ning TRAIL-induced apoptosis [19-22]. The production of\nOPG in colorectal cancer cells and the addition of exogen-\nous OPG to colorectal cancer cells both caused resistanceto TRAIL-induced apoptosis [ 23]. Exogenous addition of\nOPG also mediates resistance t o TRAIL-induced apoptosis\nin ovarian cancer cells [24].\nBecause OPG binds to TRAIL, OPG-mediated protection\nfrom TRAIL in various cancer cells has been assumed\nto be mainly related to its decoy function. However, theobservations that OPG activates integrin/focal adhesion\nkinase (FAK)/ERK1/2 signaling in endothelial cells [7,8] to\npromote proliferation and migration suggest that OPGregulates cell function directly. Indeed, it was suggested that\nOPG-mediated proliferation and migration of endothelial\ncells occurs in a TRAIL-independent manner [7,25]. Inovarian cancer cells, activation of integrin/FAK and ERK1/2\nsignaling contribute to atten uate TRAIL-induced apoptosis\n[26,27]. Based on these observations, we hypothesize\nthat OPG might attenuate TRAIL-induced apoptosis in a\nTRAIL binding-independent manner by activating survivalsignaling pathways in ovarian cancer cells. The purpose of\nthis study was to investigate whether exogenous OPG can\nconfer protection against TRA IL-induced apoptosis inde-\npendent from its ability to act as a TRAIL decoy receptor.\nResults\nOPG attenuates TRAIL-induced apoptosis in a TRAIL\nbinding-independent manner\nTo assess the hypothesis that OPG attenuates TRAIL-\ninduced apoptosis in a TRAIL binding-independentmanner, ovarian cancer cell lines CaOV3 and OVCAR3\nwere challenged with exogenous OPG for 1 h, washed\nextensively and incubated in medium containing TRAIL.OVCAR3 is an ovarian carcinoma cell line isolated from\nmalignant ascites that is resistant to clinically relevant\nconcentrations of cisplatin b ut remains sensitive to TRAIL-\ninduced apoptosis. CaOV3 is al so an ovarian carcinoma cell\nline isolated from a patient with advanced disease. The\nTRAIL signaling cascade has been well characterized inthese cell lines [26-28]. The concentration of OPG was se-\nlected based on our previous study, which demonstrated\nthat OPG, at a concentration of 25 ng/ml, significantlyattenuates TRAIL-induced apoptosis [24]. OVCAR3 and\nCaOV3 cells were thus incubated with OPG for 1 h and']</t>
+          <t>['SHORT REPORT\nNovel POLG mutations in progressive external\nophthalmoplegia mimicking mitochondrial\nneurogastrointestinal encephalomyopathy\nGert Van Goethem*,1,2, Marianne Schwartz3, Ann Lo ¨fgren2, Bart Dermaut2,\nChristine Van Broeckhoven2and John Vissing4\n1Neuromuscular Reference Center and Department of Neurology, University Hospital of Antwerp (UZA), Antwerpen,\nBelgium;2Department of Molecular Genetics, Flanders Interuniversity Institute for Biotechnology (VIB8), Born-Bunge\nFoundation (BBS), University of Antwerp (UA), Antwerpen, Belgium;3Department of Clinical Genetics, National\nUniversity Hospital, Rigshospitalet, Copenhagen, Denmark;4Department of Neurology and the Copenhagen Muscle\nResearch Center, National University Hospital, Rigshospitalet, Copenhagen, Denmark\nAutosomal recessive progressive external ophthalmoplegia (PEO) is one clinical disorder associated with\nmultiple mitochondrial DNA deletions and can be caused by missense mutations in POLG , the gene\nencoding the mitochondrial DNA polymerase gamma. Mitochondrial neurogastrointestinal\nencephalomyopathy (MNGIE) is another autosomal recessive disorder associated with PEO and multiple\ndeletions of mitochondrial DNA in skeletal muscle. In several patients this disorder is caused by loss of\nfunction mutations in the gene encoding thymidine phosphorylase ( TP). We report a recessive family with\nfeatures of MNGIE but no leukoencephalopathy in which two patients carry three missense mutations in\nPOLG , of which two are novel mutations (N846S and P587L). The third mutation was previously reported as\na recessive POLG mutation (T251I). This finding indicates the need for POLG sequencing in patients with\nfeatures of MNGIE without TPmutations.\nEuropean Journal of Human Genetics (2003) 11,547–549. doi:10.1038/sj.ejhg.5201002\nKeywords: MNGIE; Multiple mtDNA deletions; POLG ; PEO\nProgressive external ophthalmoplegia (PEO) is a common\nsign in mitochondrial disorders and often co-occurs with\nother variable disease features. One form of PEO is\nassociated with multiple deletions of mitochondrial DNA\n(mtDNA) in skeletal muscle.1These mtDNA deletions are\nsecondary to an inherited disorder of mtDNA maintenance\ncaused by a defect in a nuclear gene. In recent years, defects\nin different nuclear genes have been identified that\npredispose to both dominant and recessive forms of PEO\nassociated with multiple mtDNA deletions. Dominant PEOcan be caused by mutations in the genes encoding the\nheart/skeletal muscle isoform of the adenine nucleotide\ntranslocator ( ANT1 ),2the novel mitochondrial protein\nTwinkle ( C10orf2 )3and the mtDNA polymerase gamma\n(POLG ).4Autosomal recessive PEO can be caused by\nmutations in POLG .4–6So far mutations in the gene\nencoding thymidine phosphorylase ( TP) have been exclu-\nsively found in patients with mitochondrial neurogastroin-\ntestinal encephalomyopathy (MNGIE).7MNGIE patients\ntypically have severe gastrointestinal manifestations in-\ncluding recurrent vomiting and intestinal pseudo-obstruc-\ntion, peripheral neuropathy, ophthalmoplegia, ptosis and\ncachexia. Various laboratory findings are reported, includ-\ning leukoencephalopathy on brain MRI.8Here, we report\nthe finding of recessive missense mutations in POLG in two\nsisters with a clinical phenotype undistinguishable from\nMNGIE.Received 24 December 2002; revised 26 February 2003; accepted 27\nFebruary 2003*Correspondence: Dr G Van Goethem, Department of Molecular Genetics\n(VIB8), Born-Bunge Foundation (BBS), University of Antwerp (UA),\nUniversiteitsplein 1, B-2610 Antwerpen, Belgium. Tel: +32 3 8202307;\nFax: +32 3 8202541;\nE-mail: vgoethge@uia.ua.ac.be\nEuropean Journal of Human Genetics (2003) 11, 547–549\n&amp;2003 Nature Publishing Group All rights reserved 1018-4813/03 $25.00\nwww.nature.com/ejhg\nThe detailed clinical and laboratory features were\ndescribed elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,', 'caused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of\nMNGIE caused by TPmutations.8,11The more severe\nphenotype in the present family versus previously described\nrecessive PEO patients with POLG mutations might result\nfrom a greater functional impairment of POLG induced by\nthe three mutations together. Also, depending on the\nlocation of the mutation within POLG a more or less severe\neffect on POLG functioning may result. In this respect, it is\nworth mentioning that N864S involves a highly conserved\nsequence block close to the POLG polymerase motif A, and\nthat T251I is located between the POLG exonuclease motifs\nI and II (Figure 1b). Data from the current literature show\nthat the clinical phenotype of recessive PEO patients with\nPOLG mutations is quite heterogeneous. Common features\ninclude PEO and axonal sensory neuropathy but associated\nfeatures are quite variable, including sensory ataxia,\ncardiomyopathy, retinopathy, sensorineural hearing loss,\nthalamic lesions, muscle dystrophy, facial diplegia, dysar-\nthria and dysphagia.5,6This protean presentation of\nrecessive POLG mutations contrasts with the apparently\nhomogeneous clinical picture of MNGIE, which is caused\nby mutations in TP.8Only the absence of leukoencephalo-\npathy on brain MRI could distinguish our patients from\nthose with TPmutations. However, in earlier descriptive\nstudies on MNGIE, leukoencephalopathy was not an\ninclusion criterion.11On the other hand, leukoencephalo-\npathy has not yet been encountered in patients with POLG\nmutations,5,6,12and it has been suggested that in MNGIE\npatients leukoencephalopathy could be related to the role\nthat TPplays in glial cell proliferation or cortical neuron\ntrophism, which is unrelated to the effect of TPonnucleotide metabolism.7If further studies on TPand POLG\nin patients with recessive PEO or MNGIE characterized\nby multiple mtDNA deletions would confirm these data,\nbrain MRI could be used as a noninvasive test to diff-\nerentiate patients with TPmutations from those with POLG\nmutations.\nAcknowledgements\nThis work was in part supported by a grant from the Danish National\nResearch Foundation (504-14). BD is a doctoral fellow of the Fund for\nScientific Research-Flanders (FWO-F).\nReferences\n1 Zeviani M, Servidei S, Gellera C, Bertini E, DiMauro S, DiDonato\nS: An autosomal dominant disorder with multiple deletions of\nmitochondrial DNA starting at the D-loop region. Nature 1989;\n339: 309–311.\n2 Kaukonen J, Juselius JK, Tiranti V et al: Role of adenine nucleotide\ntranslocator 1 in mtDNA maintenance. Science 2000; 289:\n782–785.\n3 Spelbrink JN, Li FY, Tiranti V et al: Human mitochondrial DNA\ndeletions associated with mutations in the gene encoding\nTwinkle a, phage T7 gene 4-like protein localized in\nmitochondria. Nat Genet 2001; 28: 223–231.\n4 Van Goethem G, Dermaut B, Lofgren A, Martin JJ, Van\nBroeckhoven C: Mutation of POLG is associated with\nprogressive external ophthalmoplegia characterized by mtDNA\ndeletions. Nat Genet 2001; 28: 211–212.\n5 Lamantea E, Tiranti V, Bordoni A et al : Mutations of mito-\nchondrial DNA polymerase gammaA are a frequent cause of\nautosomal dominant or recessive progressive external ophthal-\nmoplegia. Ann Neurol 2002; 52: 211–219.\n6 Van Goethem G, Martin JJ, Dermaut B et al : Recessive POLG\nmutations presenting with sensory and ataxic neuropathy in\ncompound heterozygote patients with progressive external\nophthalmoplegia. Neuromuscul Disord 2002; 13: 133–142.\n7 Nishino I, Spinazzola A, Hirano M: Thymidine phosphorylase\ngene mutations in MNGIE, a human mitochondrial disorder.\nScience 1999; 283: 689–692.\n8 Nishino I, Spinazzola A, Papadimitriou A et al : Mitochondrial\nneurogastrointestinal encephalomyopathy: an autosomal\nrecessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions', 'described elsewhere.9Briefly, at age 15 years both patients\nhad onset of gastrointestinal symptoms including chronic\npseudo-obstruction. On examination, they had PEO,\naxonal sensory ataxic neuropathy, muscle weakness and\ncachexia. Brain MRI was normal. Muscle biopsy demon-\nstrated few ragged red fibers, cytochrome coxidase\nnegative fibers, decreased enzymatic activities of respira-\ntory chain complexes I and IV, depletion of mtDNA and\nmultiple mtDNA deletions. Direct sequencing revealed\nhomozygosity for a common polymorphism in TPbut no\npathogenic mutations and enzymatic TP activity in\nleukocytes was normal.9The pedigree of the recessive\nfamily is shown in Figure 1a.\nIn both the patients, pathogenic mutations in TPhad\nbeen excluded previously.9The fact that axonal predomi-\nnantly sensory peripheral neuropathy is common in\nrecessive PEO patients with POLG mutations,6prompted\nus to analyze POLG. Sequencing of all coding POLG exons\nusing flanking intronic primers4in the proband (II.4)\nrevealed the presence of three single-base changes. One\nmutation in exon 3 (c.752C -T), predicting the amino-\nacid substitution T251I, has already been reported in fourItalian compound heterozygote recessive PEO patients of\nthree unrelated families, while absent in Italian control\nindividuals.5The other two mutations, in exons 10\n(c.1760C -T) and 16 (c.2591A -T), are novel and predict\nP587L and N864S substitutions, respectively. Segregation\nof the mutations within the family is depicted in Figure 1a.\nDNA from the deceased affected sister (II.1) had to be\nrecovered from paraffin-embedded tissue and we were only\nable to demonstrate the presence of T251I in this patient.\nThe occurrence of N864S in her unaffected son (III.1, aged\n24 years), however, demonstrated that she is an obligate\ncarrier of this mutation. The unaffected grandmother (I.2)\nand grandson (III.1) are heterozygote carriers of N864S,\nindicating that N864S is in trans with the other two\nmutations, T251I and P587L. The cisconfiguration of\nT251I and P587L is confirmed by their heterozygous\nappearance in the unaffected granddaughter (III.2, aged\n12 years). The segregation in the family is consistent with\nthe recessive nature of the three POLG mutations with the\ntwo patients being compound heterozygotes. All three\nmutations (T251I, P587L and N864S) were absent in 280\ncontrol chromosomes (90 Belgian and 50 Danish healthy\ncontrol individuals). Belgian controls were examined using\nFigure 1 (a) Segregation analysis of POLG mutations. Squares represent males, circles represent females, filled symbols represent\naffected individuals and slashed symbols represent deceased individuals. Alleles/haplotypes between brackets were reconstructed\nfrom the pedigree data. ( b) Position of mutant residues in POLG and amino-acid sequence alignment, showing evolutionary\nconservation of altered residues.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n548\nEuropean Journal of Human Genetics\nthe pyrosequencing technique,10whereas Danish controls\nwere tested by restriction enzyme digestion (T251I destroys\naBsrI site, P587L creates an Xmn I site and N864S creates a\nBsp1286I site). The three mutations apparently have a low\nfrequency in the population examined ( o0.36%) and thus\nare rare polymorphisms. All three mutations in this family\nalter evolutionary conserved residues (Figure 1b). Since\nthere are currently no methods available for studying the\nfunctional effects of POLG mutations in vivo , we cannot\nreach a conclusion about the pathogenic nature of the\nthree POLG mutations. Also, we cannot exclude that either\nall three POLG mutations or one of the two possible trans\ncombinations contribute to the phenotype in the patients.\nOur finding expands the clinical spectrum of recessive\nPOLG mutations since severe gastrointestinal features\ncaused by dysmotility and dilation have not been encoun-\ntered previously in recessive PEO patients with POLG\nmutations5,6while they are prominent manifestations of', 'recessive disorder due to thymidine phosphorylase mutations.\nAnn Neurol 2000; 47: 792–800.\n9 Vissing J, Ravn K, Danielsen ER et al: Multiple mtDNA deletions\nwith features of MNGIE. Neurology 2002; 59: 926–929.\n10 Alderborn A, Kristofferson A, Hammerling U: Determination of\nsingle-nucleotide polymorphisms by real-time pyrophosphate\nDNA sequencing. Genome Res 2000; 10: 1249–1258.\n11 Hirano M, Silvestri G, Blake DM et al : Mitochondrial neuro-\ngastrointestinal encephalomyopathy (MNGIE): clinical, biochemical,\nand genetic features of an autosomal recessive mitochondrial\ndisorder. Neurology 1994; 44: 721–727.\n12 Van Goethem G, Martin JJ, Lofgren A et al: Unusual presentation\nand clinical variability in Belgian pedigrees with progressive\nexternal ophthalmoplegia and multiple deletions of mito-\nchondrial DNA. Eur J Neurol 1997; 4: 476–484.\nNovel recessive POLG mutations in PEO resembling\nG Van Goethem et al\n549\nEuropean Journal of Human Genetics', 'PLOS ONE | www.plosone.org 12 September 2012 | Volume 7 | Issue 9 | e44964\n60. Monet M, Domenga V, Lemaire B, Souilhol C, Langa F, et al. (2007) The\narchetypal R90C CADASIL-NOTCH3 mutation retains NOTCH3 function invivo. Hum Mol Genet 16: 982–992.\n61. Monet-Lepretre M, Bardot B, Lemaire B, Domenga V, Godin O, et al. (2009)\nDistinct phenotypic and functional features of CADASIL mutations in theNotch3 ligand binding domain. Brain 132: 1601–1612.\n62. Joutel A, Monet-Lepretre M, Gosele C, Baron-Menguy C, Hammes A, et al.\n(2010) Cerebrovascular dysfunction and microcirculation rarefaction precedewhite matter lesions in a mouse genetic model of cerebral ischemic small vesseldisease. J Clin Invest 120: 433–445.63. Proweller A, Wright AC, Horng D, Cheng L, Lu MM, et al. (2007) Notch\nsignaling in vascular smooth muscle cells is required to pattern the cerebral\nvasculature. Proc Natl Acad Sci U S A 104: 16275–16280.\n64. Zhang Y, Gao J, Chung KK, Huang H, Dawson VL, et al. (2000) Parkin\nfunctions as an E2-dependent ubiquitin- protein ligase and promotes the\ndegradation of the synaptic vesicle-associated protein, CDCrel-1. Proc Natl\nAcad Sci U S A 97: 13354–13359.\n65. Pulipparacharuvil S, Akbar MA, Ray S, Sevrioukov EA, Haberman AS, et al.\n(2005) Drosophila Vps16A is required for trafficking to lysosomes and biogenesisof pigment granules. J Cell Sci 118: 3663–3673.\n66. Nazarenko I, Schafer R, Sers C (2007) Mechanisms of the HRSL3 tumor\nsuppressor function in ovarian carcinoma cells. J Cell Sci 120: 1393–1404.Cellular Effect of CADASIL Mutants of NOTCH3\nPLOS ONE | www.plosone.org 13 September 2012 | Volume 7 | Issue 9 | e44964']</t>
         </is>
       </c>
     </row>
@@ -943,17 +950,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Based on the systematic review and validation experiments described in this paper, the following 5 miRNAs were identified as the most promising potential biomarkers for epithelial ovarian cancer:
+          <t>Based on the systematic review and validation experiments described in this article, the following miRNAs appear to be the most promising potential biomarkers for epithelial ovarian cancer (EOC):
 1. miR-200a (up-regulated)
 2. miR-200b (up-regulated) 
 3. miR-200c (up-regulated)
 4. miR-141 (up-regulated)
 5. miR-100 (down-regulated)
-Specifically:
-- miR-200a, miR-200b, miR-200c, and miR-141 (all part of the miR-200 family) were consistently reported as up-regulated in at least 4 independent studies comparing epithelial ovarian cancer to normal/benign tissues.
-- miR-100 was consistently reported as down-regulated in 4 independent studies.
-- These 5 miRNAs were further validated by the authors using qRT-PCR in clinical samples, confirming their dysregulation in epithelial ovarian cancer tissues.
-The authors conclude that these 5 miRNAs are promising candidate biomarkers for epithelial ovarian cancer, though they note further clinical and mechanistic studies are still needed to fully establish their clinical significance and roles in ovarian cancer pathogenesis.</t>
+The key points supporting these as potential biomarkers are:
+- These 5 miRNAs were consistently reported as differentially expressed in EOC across multiple independent miRNA profiling studies.
+- miR-200a, miR-200b, miR-200c, and miR-141 (all part of the miR-200 family) were consistently up-regulated in at least 4 studies.
+- miR-100 was consistently down-regulated in 4 studies. 
+- The authors validated the differential expression of these 5 miRNAs in EOC tissues using qRT-PCR, confirming the findings from the literature review.
+- The article notes these miRNAs may play important roles in EOC carcinogenesis and progression, though further mechanistic studies are needed.
+- The authors conclude these 5 miRNAs are "promising important candidate biomarkers for EOC", though they note additional clinical and mechanistic studies are still needed to fully establish their clinical significance.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
